--- a/Software/CRWD.xlsx
+++ b/Software/CRWD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0566ACD9-96EC-9842-864C-A228CF56BE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168B706-B449-5E46-8474-21FAC956493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1946,12 +1946,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>398.32709999999997</v>
-    <v>183.6</v>
-    <v>1.0884</v>
-    <v>12.42</v>
-    <v>4.0379999999999999E-2</v>
-    <v>-0.53</v>
-    <v>-1.6559999999999999E-3</v>
+    <v>189.12</v>
+    <v>1.0898000000000001</v>
+    <v>10.78</v>
+    <v>3.3687000000000002E-2</v>
+    <v>0.71</v>
+    <v>2.1460000000000003E-3</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a global cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data. The Company’s Falcon platform is designed for cybersecurity consolidation, purpose-built to stop breaches. The platforms collect and integrates data from across the enterprise, including endpoints, cloud workloads, identities, and third-party sources. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers 27 cloud modules on its Falcon platform via a software-as-a-service (SaaS) subscription-based model that spans multiple large markets, including corporate endpoint and cloud workload security, and more.</v>
     <v>9219</v>
@@ -1959,25 +1959,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>324.66399999999999</v>
+    <v>333.2199</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.933435740626</v>
+    <v>45604.041604397658</v>
     <v>0</v>
-    <v>316.75009999999997</v>
-    <v>78440448000</v>
+    <v>320.45119999999997</v>
+    <v>81082910592</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>317.17</v>
-    <v>467.6995</v>
-    <v>307.58</v>
+    <v>322.5</v>
+    <v>483.44099999999997</v>
     <v>320</v>
-    <v>319.47000000000003</v>
+    <v>330.78</v>
+    <v>331.49</v>
     <v>245126400</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>4227701</v>
-    <v>3323017</v>
+    <v>3575191</v>
+    <v>3388421</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2142,9 +2142,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2904,14 +2904,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>320</v>
+        <v>330.78</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>20.133585215605748</v>
+        <v>20.811835367556469</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2951,14 +2951,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.0379999999999999E-2</v>
+        <v>3.3687000000000002E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>85.915058050383351</v>
+        <v>88.809321568455644</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2999,14 +2999,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>78440448000</v>
+        <v>81082910592</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>1.1473672358424062E-2</v>
+        <v>1.1099749545606444E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3048,7 +3048,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.0884</v>
+        <v>1.0898000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.69320976692716707</v>
+        <v>-0.70320794914049656</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Software/CRWD.xlsx
+++ b/Software/CRWD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168B706-B449-5E46-8474-21FAC956493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B1500F-A0BE-7747-B1E7-C7661C74CBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1946,12 +1946,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>398.32709999999997</v>
-    <v>189.12</v>
-    <v>1.0898000000000001</v>
-    <v>10.78</v>
-    <v>3.3687000000000002E-2</v>
-    <v>0.71</v>
-    <v>2.1460000000000003E-3</v>
+    <v>200.81</v>
+    <v>1.1006</v>
+    <v>10.32</v>
+    <v>3.0089999999999999E-2</v>
+    <v>1.7</v>
+    <v>4.8120000000000003E-3</v>
     <v>USD</v>
     <v>CrowdStrike Holdings, Inc. is a global cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data. The Company’s Falcon platform is designed for cybersecurity consolidation, purpose-built to stop breaches. The platforms collect and integrates data from across the enterprise, including endpoints, cloud workloads, identities, and third-party sources. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers 27 cloud modules on its Falcon platform via a software-as-a-service (SaaS) subscription-based model that spans multiple large markets, including corporate endpoint and cloud workload security, and more.</v>
     <v>9219</v>
@@ -1959,25 +1959,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
-    <v>333.2199</v>
+    <v>354.34</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45604.041604397658</v>
+    <v>45616.041586978907</v>
     <v>0</v>
-    <v>320.45119999999997</v>
-    <v>81082910592</v>
+    <v>338.52940000000001</v>
+    <v>86600705856</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>322.5</v>
-    <v>483.44099999999997</v>
-    <v>320</v>
-    <v>330.78</v>
-    <v>331.49</v>
+    <v>341.54</v>
+    <v>507.39550000000003</v>
+    <v>342.97</v>
+    <v>353.29</v>
+    <v>354.99</v>
     <v>245126400</v>
     <v>CRWD</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
-    <v>3575191</v>
-    <v>3388421</v>
+    <v>3169518</v>
+    <v>3188089</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2904,14 +2904,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>330.78</v>
+        <v>353.29</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>20.811835367556469</v>
+        <v>22.228107252566733</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2951,14 +2951,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.3687000000000002E-2</v>
+        <v>3.0089999999999999E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>88.809321568455644</v>
+        <v>94.852908933187294</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2999,14 +2999,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>81082910592</v>
+        <v>86600705856</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>1.1099749545606444E-2</v>
+        <v>1.0392524992769962E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3048,7 +3048,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.0898000000000001</v>
+        <v>1.1006</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.70320794914049656</v>
+        <v>-0.72211816189728961</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
